--- a/BIM_Study_Materials/3rd Sem/Business Statistics/Lab Work/Book1 (1).xlsx
+++ b/BIM_Study_Materials/3rd Sem/Business Statistics/Lab Work/Book1 (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pritishmashakya/Documents/GitHub/College Works/BIM_Study_Materials/3rd Sem/Business Statistics/Lab Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1B8242-7D4A-B040-9073-BF63F8FB220A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933D95F8-EEC1-5B44-B805-0832F5E452C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId15"/>
-    <pivotCache cacheId="13" r:id="rId16"/>
+    <pivotCache cacheId="0" r:id="rId15"/>
+    <pivotCache cacheId="1" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5602,7 +5602,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -5681,7 +5681,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable6" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -6024,8 +6024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView view="pageLayout" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6646,8 +6646,13 @@
       </c>
     </row>
   </sheetData>
+  <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;P&amp;P</oddHeader>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6656,8 +6661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7189,7 +7194,7 @@
   <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7414,8 +7419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7517,7 +7522,7 @@
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7748,15 +7753,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7765,7 +7771,7 @@
     <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>82</v>
       </c>
@@ -7773,7 +7779,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>163</v>
       </c>
@@ -7784,7 +7790,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>167</v>
       </c>
@@ -7795,7 +7801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -7806,8 +7812,12 @@
         <f>1-(_xlfn.NORM.DIST(130,D3,D4,TRUE))</f>
         <v>3.0396361765261393E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <f>1-_xlfn.NORM.DIST(129,D3,D4,TRUE)</f>
+        <v>4.0059156863817114E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -7819,7 +7829,7 @@
         <v>8.8902529910843192E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -7831,7 +7841,7 @@
         <v>0.70361810918603807</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -7843,7 +7853,7 @@
         <v>121.73296986858333</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -7857,6 +7867,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -7864,8 +7875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8502,6 +8513,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8726,6 +8738,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8734,8 +8747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9425,6 +9438,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -9433,7 +9447,7 @@
   <dimension ref="A2:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9854,7 +9868,7 @@
   <dimension ref="B1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F14"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10166,7 +10180,7 @@
   <dimension ref="B1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10500,6 +10514,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>